--- a/excel-filter-reader/src/test/resources/input.xlsx
+++ b/excel-filter-reader/src/test/resources/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delacruz\Projects\java-topics\apache-poi-filters\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delacruz\Projects\java-topics\excel-filter-reader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -385,17 +388,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,6 +458,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C5">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
